--- a/USA/state/data/dic/1980_2016/DIC comparison injuries pw and nonpw all ages 1980-2016.xlsx
+++ b/USA/state/data/dic/1980_2016/DIC comparison injuries pw and nonpw all ages 1980-2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/data/dic/1980_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62745531-7A18-6C40-BB16-5AE3BA16F314}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950BB379-8076-1A45-975E-45775915E888}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
+    <workbookView xWindow="860" yWindow="1280" windowWidth="23620" windowHeight="15100" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>External</t>
   </si>
   <si>
-    <t>Winner</t>
+    <t>Lowest DIC</t>
   </si>
 </sst>
 </file>
@@ -414,10 +414,13 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
